--- a/males_and_females_on_no_gender_means.xlsx
+++ b/males_and_females_on_no_gender_means.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,96 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlomin\PycharmProjects\lda_test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78160EC4-B3FA-4E95-B353-77966BA42098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B941A1A-C719-4CB9-BDA8-97F8C94EA31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="males_and_females_on_females_me" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Females</t>
   </si>
   <si>
     <t>Males</t>
   </si>
+  <si>
+    <t>Determined</t>
+  </si>
+  <si>
+    <t>Collaborator</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Conqueror</t>
+  </si>
+  <si>
+    <t>Peacful zionist</t>
+  </si>
+  <si>
+    <t>Nurturing</t>
+  </si>
+  <si>
+    <t>Educator</t>
+  </si>
+  <si>
+    <t>Army Commander</t>
+  </si>
+  <si>
+    <t>Visionary</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Achiever</t>
+  </si>
+  <si>
+    <t>Fiction Character</t>
+  </si>
+  <si>
+    <t>Problem Sover</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>Sorted to communal/agentic</t>
+  </si>
+  <si>
+    <t>Patronistic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +228,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,8 +581,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -624,7 +697,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>males_and_females_on_females_me!$A$1</c:f>
+              <c:f>males_and_females_on_females_me!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -657,9 +730,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>males_and_females_on_females_me!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Patronistic</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>males_and_females_on_females_me!$B$1:$P$1</c:f>
+              <c:f>males_and_females_on_females_me!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -714,7 +840,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49BB-4E5D-BC3B-9747BF73B249}"/>
+              <c16:uniqueId val="{00000000-1994-48B6-9675-ED18E54D9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -723,7 +849,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>males_and_females_on_females_me!$A$2</c:f>
+              <c:f>males_and_females_on_females_me!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -756,9 +882,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>males_and_females_on_females_me!$B$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Patronistic</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>males_and_females_on_females_me!$B$2:$P$2</c:f>
+              <c:f>males_and_females_on_females_me!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -813,7 +992,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-49BB-4E5D-BC3B-9747BF73B249}"/>
+              <c16:uniqueId val="{00000001-1994-48B6-9675-ED18E54D9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -827,16 +1006,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615297672"/>
-        <c:axId val="615295704"/>
+        <c:axId val="774568816"/>
+        <c:axId val="774569472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="615297672"/>
+        <c:axId val="774568816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -873,7 +1053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615295704"/>
+        <c:crossAx val="774569472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -881,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="615295704"/>
+        <c:axId val="774569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +1112,552 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615297672"/>
+        <c:crossAx val="774568816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>males_and_females_on_females_me!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Females</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>males_and_females_on_females_me!$B$15:$O$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Patronistic</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>males_and_females_on_females_me!$B$16:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.18040776745373999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17338637647174401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.44575402702427E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114182009861359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9017027734953099E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.51857983768752E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.72305327282489E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10514837229482001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.27013331409609E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6985423562518401E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3007211945141203E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7550066169147401E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7527161588057198E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7023651845993205E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3878-41B5-BDF9-58C5967FF32F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>males_and_females_on_females_me!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Males</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>males_and_females_on_females_me!$B$15:$O$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Nurturing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Collaborator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Family</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimistic</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fiction Character</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Educator</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Visionary</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Determined</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Conqueror</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Peacful zionist</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Patronistic</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Army Commander</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Achiever</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Problem Sover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>males_and_females_on_females_me!$B$17:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.13400863803028601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.174266699506711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8726757748607001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2444405729181306E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6075027341446101E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6958477921247001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7424588019526299E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.119937527832212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6889842607735999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8323698784913899E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1546419957313799E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.82127288925754E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0861495244102203E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2987189640561398E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3878-41B5-BDF9-58C5967FF32F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="397957032"/>
+        <c:axId val="397956704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397957032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397956704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397956704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397957032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1059,6 +1784,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1562,27 +2327,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141287</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6ACD05-2C65-4FD5-B7B7-0942BC5DB095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD14FB24-AA87-44B0-B7F3-C7A6CC19E56A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,6 +2863,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281781</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>575468</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE3F301-125E-4415-B8A7-2D2137601AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1899,112 +3203,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0.10514837229482001</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>0.17338637647174401</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>2.44575402702427E-2</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>0.114182009861359</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>2.27013331409609E-2</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>2.6985423562518401E-2</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>0.18040776745373999</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>3.3007211945141203E-2</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>2.51857983768752E-2</v>
       </c>
-      <c r="K1">
+      <c r="K2">
         <v>1.7550066169147401E-2</v>
       </c>
-      <c r="L1">
+      <c r="L2">
         <v>2.72305327282489E-2</v>
       </c>
-      <c r="M1">
+      <c r="M2">
         <v>9.6189726556197397E-2</v>
       </c>
-      <c r="N1">
+      <c r="N2">
         <v>4.7527161588057198E-2</v>
       </c>
-      <c r="O1">
+      <c r="O2">
         <v>2.9017027734953099E-2</v>
       </c>
-      <c r="P1">
+      <c r="P2">
         <v>7.7023651845993205E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.119937527832212</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.174266699506711</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2.8726757748607001E-2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>9.2444405729181306E-2</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>3.6889842607735999E-2</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2.8323698784913899E-2</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0.13400863803028601</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>4.1546419957313799E-2</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>4.6958477921247001E-2</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>1.82127288925754E-2</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>3.7424588019526299E-2</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>8.1336502743579203E-2</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>5.0861495244102203E-2</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>2.6075027341446101E-2</v>
       </c>
-      <c r="P2">
+      <c r="P3">
+        <v>8.2987189640561398E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE(D7:D11)</f>
+        <v>26.407999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="F8">
+        <f>_xlfn.STDEV.P(D7:D11)</f>
+        <v>16.38474583263347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>55.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.18040776745373999</v>
+      </c>
+      <c r="C16">
+        <v>0.17338637647174401</v>
+      </c>
+      <c r="D16">
+        <v>2.44575402702427E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.114182009861359</v>
+      </c>
+      <c r="F16">
+        <v>2.9017027734953099E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.51857983768752E-2</v>
+      </c>
+      <c r="H16">
+        <v>2.72305327282489E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.10514837229482001</v>
+      </c>
+      <c r="J16">
+        <v>2.27013331409609E-2</v>
+      </c>
+      <c r="K16">
+        <v>2.6985423562518401E-2</v>
+      </c>
+      <c r="L16">
+        <v>3.3007211945141203E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.7550066169147401E-2</v>
+      </c>
+      <c r="N16">
+        <v>4.7527161588057198E-2</v>
+      </c>
+      <c r="O16">
+        <v>7.7023651845993205E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.13400863803028601</v>
+      </c>
+      <c r="C17">
+        <v>0.174266699506711</v>
+      </c>
+      <c r="D17">
+        <v>2.8726757748607001E-2</v>
+      </c>
+      <c r="E17">
+        <v>9.2444405729181306E-2</v>
+      </c>
+      <c r="F17">
+        <v>2.6075027341446101E-2</v>
+      </c>
+      <c r="G17">
+        <v>4.6958477921247001E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.7424588019526299E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.119937527832212</v>
+      </c>
+      <c r="J17">
+        <v>3.6889842607735999E-2</v>
+      </c>
+      <c r="K17">
+        <v>2.8323698784913899E-2</v>
+      </c>
+      <c r="L17">
+        <v>4.1546419957313799E-2</v>
+      </c>
+      <c r="M17">
+        <v>1.82127288925754E-2</v>
+      </c>
+      <c r="N17">
+        <v>5.0861495244102203E-2</v>
+      </c>
+      <c r="O17">
         <v>8.2987189640561398E-2</v>
       </c>
     </row>
